--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="27315" windowHeight="11760"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="24240" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,35 +405,35 @@
         <v>904492748</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3013684370</v>
-      </c>
-      <c r="B3">
-        <v>904492469</v>
-      </c>
-    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3013688560</v>
+        <v>3013684370</v>
       </c>
       <c r="B4">
-        <v>904493578</v>
+        <v>904492469</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3013686777</v>
+        <v>3013688560</v>
       </c>
       <c r="B5">
-        <v>904493242</v>
+        <v>904493578</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>3013686777</v>
+      </c>
+      <c r="B6">
+        <v>904493242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>3013686776</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>904493314</v>
       </c>
     </row>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="24240" windowHeight="11760"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="171">
   <si>
     <t>ORDER</t>
   </si>
@@ -25,6 +25,510 @@
   </si>
   <si>
     <t>DELIVERY</t>
+  </si>
+  <si>
+    <t>INVOICE_NO</t>
+  </si>
+  <si>
+    <t>INVOIVE DATE</t>
+  </si>
+  <si>
+    <t>ORDER NO</t>
+  </si>
+  <si>
+    <t>WHS</t>
+  </si>
+  <si>
+    <t>DELIVERY_NO</t>
+  </si>
+  <si>
+    <t>CUTOMER P.O.</t>
+  </si>
+  <si>
+    <t>ACCOUNT NO</t>
+  </si>
+  <si>
+    <t>ITEM NO.</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>SHIPPED QTY</t>
+  </si>
+  <si>
+    <t>U/M</t>
+  </si>
+  <si>
+    <t>UNIT PRICE</t>
+  </si>
+  <si>
+    <t>DISC1</t>
+  </si>
+  <si>
+    <t>DISC2</t>
+  </si>
+  <si>
+    <t>DISC3</t>
+  </si>
+  <si>
+    <t>CSTM CHGS</t>
+  </si>
+  <si>
+    <t>NET PRICE</t>
+  </si>
+  <si>
+    <t>EXTENDED</t>
+  </si>
+  <si>
+    <t>TOTAL SHIPPED QTY</t>
+  </si>
+  <si>
+    <t>NET ORDER TOTAL</t>
+  </si>
+  <si>
+    <t>SHIPPING AND HANDLING TOTAL</t>
+  </si>
+  <si>
+    <t>TOTAL INVOICE</t>
+  </si>
+  <si>
+    <t>06B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM POM             </t>
+  </si>
+  <si>
+    <t>US00061829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7WEAWHP-P06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pom Pom Winter Hat Assorted Black/Navy/Red                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA </t>
+  </si>
+  <si>
+    <t>US00042085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1-60      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 Stand Bag Red/Black                               </t>
+  </si>
+  <si>
+    <t>US00058208</t>
+  </si>
+  <si>
+    <t>04B</t>
+  </si>
+  <si>
+    <t>COM-LDRSHP-54 - HATS</t>
+  </si>
+  <si>
+    <t>USEA000006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7AULP-014    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unstructured Tour Cap Black/White/Navy Leadership           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7AULP-019    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unstructured Tour Cap Black/White/Assorted Leadership       </t>
+  </si>
+  <si>
+    <t>06Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y ZC              </t>
+  </si>
+  <si>
+    <t>US00002181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA4ACSCUCC-01  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Canopy Umbrella Custom                               </t>
+  </si>
+  <si>
+    <t>07E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US-GEAR-UAT-4       </t>
+  </si>
+  <si>
+    <t>US00002333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7ATPWC-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour Performance White w/ Black Script Custom               </t>
+  </si>
+  <si>
+    <t>US00064622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA6ESSP-0C     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential Sack Pack Custom                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA6ESLBP-0C    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential Large Backpack Custom                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">COM-LDRSHP-60       </t>
+  </si>
+  <si>
+    <t>US00077694</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1-0       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 SB Black                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    </t>
+  </si>
+  <si>
+    <t>US00034535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA6ESSP-0      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essential Sack Pack                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6-016     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 5 Stand Bag Black/White/Red                         </t>
+  </si>
+  <si>
+    <t>US00031606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6-246     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 5 Stand Bag Grey/Navy/Red                           </t>
+  </si>
+  <si>
+    <t>US00059097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7ATPW-P12    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour Performance Cap White Royal/Red/Charcoal               </t>
+  </si>
+  <si>
+    <t>US00030423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5ACLHCD-1    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leather Driver Headcover White                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HANK LAWSON         </t>
+  </si>
+  <si>
+    <t>US00025194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB6SX2-0       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4UP StaDry Stand Bag Black                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICKMAN             </t>
+  </si>
+  <si>
+    <t>US00242219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7CY10-0      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premium Carry Bag Black                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MICHAEL LOONEY      </t>
+  </si>
+  <si>
+    <t>US00061767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB6CT6-43      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deluxe Cart Bag Blue/Lime                                   </t>
+  </si>
+  <si>
+    <t>US00029854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA9TV07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Glove Travel Cover                                     </t>
+  </si>
+  <si>
+    <t>US00040048</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA4ACSCU-01    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single Canopy Umbrella                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENNIS COYNE        </t>
+  </si>
+  <si>
+    <t>US00033464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX14-016    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 14 Stand Bag Black/White/Red                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCT ORDER           </t>
+  </si>
+  <si>
+    <t>US00071255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5TVTC        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Wheeled Travel Cover Black                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLUM LAKE           </t>
+  </si>
+  <si>
+    <t>USEM000074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5ACLHCH      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leather Hybrid Headcover Black                              </t>
+  </si>
+  <si>
+    <t>US00030275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7WEALB-P06   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifestyle Legacy Beanie Assorted Blk, Char, Blue            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT TRU SOFT DISPLAY </t>
+  </si>
+  <si>
+    <t>US00026337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMM7DTDSP-18   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 DT TruSoft 18 dz DSP                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAG                 </t>
+  </si>
+  <si>
+    <t>USEA000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1-016     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 Stand Bag Black/White/Red                         </t>
+  </si>
+  <si>
+    <t>US00025537</t>
+  </si>
+  <si>
+    <t>US00025272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5TVPVP-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Zippered Pouch Black                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANNER              </t>
+  </si>
+  <si>
+    <t>US00034355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMM718BANNER   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titleist Banner                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HATS                </t>
+  </si>
+  <si>
+    <t>US00036957</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7VLP-P12     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low Profile Visor Black/White                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOURNEY BAGS        </t>
+  </si>
+  <si>
+    <t>US00060358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SF4-061     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Staff Bag                                               </t>
+  </si>
+  <si>
+    <t>US00065465</t>
+  </si>
+  <si>
+    <t>US00202680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA2ACPTWL      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players Towel                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y BAG LEVEL 1     </t>
+  </si>
+  <si>
+    <t>US00025028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6TC-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 5 Tournament Stand Bag Black Custom                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y BAG LEVEL 2     </t>
+  </si>
+  <si>
+    <t>US00025065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SS6AC-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 5 Stand Bag Black Custom                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y BAG LEVEL 3     </t>
+  </si>
+  <si>
+    <t>US00028338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1CC-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 Stand Bag Black Custom                            </t>
+  </si>
+  <si>
+    <t>06R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAT_SMK-12          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1SC-203   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 Stand Bag Grey/Sapphire/Lime Custom               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y NON-BAG PTNR    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6SC-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y UST8PUP         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6SC-016   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 5 Stand Bag Black/White/Red Custom                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y USTPU25         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y UST8HSA         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX1SC-016   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 4 SB Blk/Wht/Red CST                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y USTP            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX14SC-016  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 14 Stand Bag Black/White/Red Custom                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06Y FLAGSHIP        </t>
+  </si>
+  <si>
+    <t>USEK000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX6CC-016   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TB7SX14Z       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Players 14 Stand Bag Custom                                 </t>
   </si>
 </sst>
 </file>
@@ -375,7 +879,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -444,12 +948,3302 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>904844990</v>
+      </c>
+      <c r="B2">
+        <v>20171023</v>
+      </c>
+      <c r="C2">
+        <v>3013864909</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>13868631</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>180</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2">
+        <v>186.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>904844840</v>
+      </c>
+      <c r="B3">
+        <v>20171023</v>
+      </c>
+      <c r="C3">
+        <v>3013986303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>14415833</v>
+      </c>
+      <c r="F3">
+        <v>557023467</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3">
+        <v>115</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>4300</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>904844841</v>
+      </c>
+      <c r="B4">
+        <v>20171023</v>
+      </c>
+      <c r="C4">
+        <v>3013986305</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>14415834</v>
+      </c>
+      <c r="F4">
+        <v>557023466</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4">
+        <v>115</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>100</v>
+      </c>
+      <c r="R4">
+        <v>3200</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>904844937</v>
+      </c>
+      <c r="B5">
+        <v>20171023</v>
+      </c>
+      <c r="C5">
+        <v>3013989999</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>14431089</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>5.4</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>904844937</v>
+      </c>
+      <c r="B6">
+        <v>20171023</v>
+      </c>
+      <c r="C6">
+        <v>3013989999</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>14431089</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6">
+        <v>5.4</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>904845020</v>
+      </c>
+      <c r="B7">
+        <v>20171023</v>
+      </c>
+      <c r="C7">
+        <v>3013991893</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <v>14436525</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7">
+        <v>36</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>36</v>
+      </c>
+      <c r="R7">
+        <v>72</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>904844957</v>
+      </c>
+      <c r="B8">
+        <v>20171023</v>
+      </c>
+      <c r="C8">
+        <v>3013991942</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>14436588</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>13.5</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-1.25</v>
+      </c>
+      <c r="Q8">
+        <v>14.75</v>
+      </c>
+      <c r="R8">
+        <v>354</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>904845021</v>
+      </c>
+      <c r="B9">
+        <v>20171023</v>
+      </c>
+      <c r="C9">
+        <v>3013991943</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9">
+        <v>14436589</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>36</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>904845022</v>
+      </c>
+      <c r="B10">
+        <v>20171023</v>
+      </c>
+      <c r="C10">
+        <v>3013991944</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>14436590</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>36</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>36</v>
+      </c>
+      <c r="R10">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" t="s">
+        <v>30</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>904845023</v>
+      </c>
+      <c r="B11">
+        <v>20171023</v>
+      </c>
+      <c r="C11">
+        <v>3013991946</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11">
+        <v>14436598</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>-5</v>
+      </c>
+      <c r="Q11">
+        <v>20</v>
+      </c>
+      <c r="R11">
+        <v>40</v>
+      </c>
+      <c r="S11" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" t="s">
+        <v>30</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>904845023</v>
+      </c>
+      <c r="B12">
+        <v>20171023</v>
+      </c>
+      <c r="C12">
+        <v>3013991946</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>14436598</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12">
+        <v>60</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>-10</v>
+      </c>
+      <c r="Q12">
+        <v>70</v>
+      </c>
+      <c r="R12">
+        <v>70</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
+      <c r="T12" t="s">
+        <v>30</v>
+      </c>
+      <c r="U12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V12">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>904845108</v>
+      </c>
+      <c r="B13">
+        <v>20171023</v>
+      </c>
+      <c r="C13">
+        <v>3013992523</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>14439384</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13">
+        <v>115</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>103.5</v>
+      </c>
+      <c r="R13">
+        <v>103.5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" t="s">
+        <v>30</v>
+      </c>
+      <c r="V13">
+        <v>114.97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>904845029</v>
+      </c>
+      <c r="B14">
+        <v>20171023</v>
+      </c>
+      <c r="C14">
+        <v>3013992639</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>14439590</v>
+      </c>
+      <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>15</v>
+      </c>
+      <c r="M14">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>11.25</v>
+      </c>
+      <c r="R14">
+        <v>56.25</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
+      <c r="T14" t="s">
+        <v>30</v>
+      </c>
+      <c r="U14" t="s">
+        <v>30</v>
+      </c>
+      <c r="V14">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>904845112</v>
+      </c>
+      <c r="B15">
+        <v>20171023</v>
+      </c>
+      <c r="C15">
+        <v>3013992785</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>14439831</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>128</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>115.2</v>
+      </c>
+      <c r="R15">
+        <v>115.2</v>
+      </c>
+      <c r="S15" t="s">
+        <v>30</v>
+      </c>
+      <c r="T15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" t="s">
+        <v>30</v>
+      </c>
+      <c r="V15">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>904845031</v>
+      </c>
+      <c r="B16">
+        <v>20171023</v>
+      </c>
+      <c r="C16">
+        <v>3013992896</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>14440336</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16">
+        <v>128</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>128</v>
+      </c>
+      <c r="R16">
+        <v>128</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16" t="s">
+        <v>30</v>
+      </c>
+      <c r="U16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>904845032</v>
+      </c>
+      <c r="B17">
+        <v>20171023</v>
+      </c>
+      <c r="C17">
+        <v>3013992902</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>14440342</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17">
+        <v>13.5</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13.5</v>
+      </c>
+      <c r="R17">
+        <v>162</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T17" t="s">
+        <v>30</v>
+      </c>
+      <c r="U17" t="s">
+        <v>30</v>
+      </c>
+      <c r="V17">
+        <v>170.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>904845033</v>
+      </c>
+      <c r="B18">
+        <v>20171023</v>
+      </c>
+      <c r="C18">
+        <v>3013992910</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18">
+        <v>14440351</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18">
+        <v>45</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>45</v>
+      </c>
+      <c r="R18">
+        <v>45</v>
+      </c>
+      <c r="S18" t="s">
+        <v>30</v>
+      </c>
+      <c r="T18" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>904845034</v>
+      </c>
+      <c r="B19">
+        <v>20171023</v>
+      </c>
+      <c r="C19">
+        <v>3013992912</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>14440354</v>
+      </c>
+      <c r="F19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>80</v>
+      </c>
+      <c r="J19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19">
+        <v>145</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>145</v>
+      </c>
+      <c r="R19">
+        <v>145</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" t="s">
+        <v>30</v>
+      </c>
+      <c r="V19">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>904845035</v>
+      </c>
+      <c r="B20">
+        <v>20171023</v>
+      </c>
+      <c r="C20">
+        <v>3013992930</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>14440375</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>64</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>128</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>904845040</v>
+      </c>
+      <c r="B21">
+        <v>20171023</v>
+      </c>
+      <c r="C21">
+        <v>3013992955</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>14440408</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21">
+        <v>150</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>130</v>
+      </c>
+      <c r="R21">
+        <v>130</v>
+      </c>
+      <c r="S21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>904845041</v>
+      </c>
+      <c r="B22">
+        <v>20171023</v>
+      </c>
+      <c r="C22">
+        <v>3013992966</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22">
+        <v>14440422</v>
+      </c>
+      <c r="F22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G22" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K22" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22">
+        <v>180</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>180</v>
+      </c>
+      <c r="R22">
+        <v>180</v>
+      </c>
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U22" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>904845092</v>
+      </c>
+      <c r="B23">
+        <v>20171023</v>
+      </c>
+      <c r="C23">
+        <v>3013992990</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>14440453</v>
+      </c>
+      <c r="F23">
+        <v>4058</v>
+      </c>
+      <c r="G23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>24.5</v>
+      </c>
+      <c r="R23">
+        <v>147</v>
+      </c>
+      <c r="S23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V23">
+        <v>160.27000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>904845047</v>
+      </c>
+      <c r="B24">
+        <v>20171023</v>
+      </c>
+      <c r="C24">
+        <v>3013993022</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>14440494</v>
+      </c>
+      <c r="F24" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+      <c r="L24">
+        <v>141</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>141</v>
+      </c>
+      <c r="R24">
+        <v>141</v>
+      </c>
+      <c r="S24" t="s">
+        <v>30</v>
+      </c>
+      <c r="T24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U24" t="s">
+        <v>30</v>
+      </c>
+      <c r="V24">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>904845094</v>
+      </c>
+      <c r="B25">
+        <v>20171023</v>
+      </c>
+      <c r="C25">
+        <v>3013993102</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>14440584</v>
+      </c>
+      <c r="F25" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25">
+        <v>200</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>170</v>
+      </c>
+      <c r="R25">
+        <v>170</v>
+      </c>
+      <c r="S25" t="s">
+        <v>30</v>
+      </c>
+      <c r="T25" t="s">
+        <v>30</v>
+      </c>
+      <c r="U25" t="s">
+        <v>30</v>
+      </c>
+      <c r="V25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>904845083</v>
+      </c>
+      <c r="B26">
+        <v>20171023</v>
+      </c>
+      <c r="C26">
+        <v>3013993346</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>14440886</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26">
+        <v>40</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T26" t="s">
+        <v>30</v>
+      </c>
+      <c r="U26" t="s">
+        <v>30</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>904845055</v>
+      </c>
+      <c r="B27">
+        <v>20171023</v>
+      </c>
+      <c r="C27">
+        <v>3013993354</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27">
+        <v>14440894</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>12.5</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>12.5</v>
+      </c>
+      <c r="R27">
+        <v>150</v>
+      </c>
+      <c r="S27" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="V27">
+        <v>157.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>904845059</v>
+      </c>
+      <c r="B28">
+        <v>20171023</v>
+      </c>
+      <c r="C28">
+        <v>3013993625</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <v>14441246</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G28" t="s">
+        <v>111</v>
+      </c>
+      <c r="H28" t="s">
+        <v>112</v>
+      </c>
+      <c r="I28" t="s">
+        <v>113</v>
+      </c>
+      <c r="J28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28" t="s">
+        <v>30</v>
+      </c>
+      <c r="U28" t="s">
+        <v>30</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>904845084</v>
+      </c>
+      <c r="B29">
+        <v>20171023</v>
+      </c>
+      <c r="C29">
+        <v>3013993720</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29">
+        <v>14441359</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29">
+        <v>115</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29" t="s">
+        <v>30</v>
+      </c>
+      <c r="T29" t="s">
+        <v>30</v>
+      </c>
+      <c r="U29" t="s">
+        <v>30</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>904845064</v>
+      </c>
+      <c r="B30">
+        <v>20171023</v>
+      </c>
+      <c r="C30">
+        <v>3013993884</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <v>14441568</v>
+      </c>
+      <c r="F30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>128</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>128</v>
+      </c>
+      <c r="R30">
+        <v>128</v>
+      </c>
+      <c r="S30" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" t="s">
+        <v>30</v>
+      </c>
+      <c r="U30" t="s">
+        <v>30</v>
+      </c>
+      <c r="V30">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>904845065</v>
+      </c>
+      <c r="B31">
+        <v>20171023</v>
+      </c>
+      <c r="C31">
+        <v>3013993906</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>14441597</v>
+      </c>
+      <c r="F31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>30</v>
+      </c>
+      <c r="R31">
+        <v>30</v>
+      </c>
+      <c r="S31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>904845100</v>
+      </c>
+      <c r="B32">
+        <v>20171023</v>
+      </c>
+      <c r="C32">
+        <v>3013994049</v>
+      </c>
+      <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>14441781</v>
+      </c>
+      <c r="F32" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" t="s">
+        <v>124</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" t="s">
+        <v>30</v>
+      </c>
+      <c r="U32" t="s">
+        <v>30</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>904845071</v>
+      </c>
+      <c r="B33">
+        <v>20171023</v>
+      </c>
+      <c r="C33">
+        <v>3013994099</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33">
+        <v>14441843</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J33" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>12</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
+        <v>384</v>
+      </c>
+      <c r="S33" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" t="s">
+        <v>30</v>
+      </c>
+      <c r="U33" t="s">
+        <v>30</v>
+      </c>
+      <c r="V33">
+        <v>418.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>904845074</v>
+      </c>
+      <c r="B34">
+        <v>20171023</v>
+      </c>
+      <c r="C34">
+        <v>3013994226</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34">
+        <v>14442007</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>165</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>148.5</v>
+      </c>
+      <c r="R34">
+        <v>297</v>
+      </c>
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" t="s">
+        <v>30</v>
+      </c>
+      <c r="U34" t="s">
+        <v>30</v>
+      </c>
+      <c r="V34">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>904845076</v>
+      </c>
+      <c r="B35">
+        <v>20171023</v>
+      </c>
+      <c r="C35">
+        <v>3013994249</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35">
+        <v>14442044</v>
+      </c>
+      <c r="F35">
+        <v>980390264</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K35" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35">
+        <v>200</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>170</v>
+      </c>
+      <c r="R35">
+        <v>170</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" t="s">
+        <v>30</v>
+      </c>
+      <c r="U35" t="s">
+        <v>30</v>
+      </c>
+      <c r="V35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>904845077</v>
+      </c>
+      <c r="B36">
+        <v>20171023</v>
+      </c>
+      <c r="C36">
+        <v>3013994280</v>
+      </c>
+      <c r="D36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36">
+        <v>14442102</v>
+      </c>
+      <c r="F36">
+        <v>25910</v>
+      </c>
+      <c r="G36" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" t="s">
+        <v>136</v>
+      </c>
+      <c r="I36" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36">
+        <v>14</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>13.72</v>
+      </c>
+      <c r="R36">
+        <v>82.32</v>
+      </c>
+      <c r="S36" t="s">
+        <v>30</v>
+      </c>
+      <c r="T36" t="s">
+        <v>30</v>
+      </c>
+      <c r="U36" t="s">
+        <v>30</v>
+      </c>
+      <c r="V36">
+        <v>82.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>904845078</v>
+      </c>
+      <c r="B37">
+        <v>20171023</v>
+      </c>
+      <c r="C37">
+        <v>3013994281</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>14442104</v>
+      </c>
+      <c r="F37">
+        <v>26485</v>
+      </c>
+      <c r="G37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" t="s">
+        <v>94</v>
+      </c>
+      <c r="J37" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>24.5</v>
+      </c>
+      <c r="R37">
+        <v>24.5</v>
+      </c>
+      <c r="S37" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" t="s">
+        <v>30</v>
+      </c>
+      <c r="U37" t="s">
+        <v>30</v>
+      </c>
+      <c r="V37">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>904844974</v>
+      </c>
+      <c r="B38">
+        <v>20171023</v>
+      </c>
+      <c r="C38">
+        <v>3013994667</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38">
+        <v>14443488</v>
+      </c>
+      <c r="F38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I38" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" t="s">
+        <v>30</v>
+      </c>
+      <c r="K38" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38">
+        <v>128</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>-50</v>
+      </c>
+      <c r="Q38">
+        <v>160</v>
+      </c>
+      <c r="R38">
+        <v>160</v>
+      </c>
+      <c r="S38" t="s">
+        <v>30</v>
+      </c>
+      <c r="T38" t="s">
+        <v>30</v>
+      </c>
+      <c r="U38" t="s">
+        <v>30</v>
+      </c>
+      <c r="V38">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>904844975</v>
+      </c>
+      <c r="B39">
+        <v>20171023</v>
+      </c>
+      <c r="C39">
+        <v>3013994676</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39">
+        <v>14443500</v>
+      </c>
+      <c r="F39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" t="s">
+        <v>143</v>
+      </c>
+      <c r="H39" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" t="s">
+        <v>30</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39">
+        <v>128</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>-30</v>
+      </c>
+      <c r="Q39">
+        <v>158</v>
+      </c>
+      <c r="R39">
+        <v>158</v>
+      </c>
+      <c r="S39" t="s">
+        <v>30</v>
+      </c>
+      <c r="T39" t="s">
+        <v>30</v>
+      </c>
+      <c r="U39" t="s">
+        <v>30</v>
+      </c>
+      <c r="V39">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>904844976</v>
+      </c>
+      <c r="B40">
+        <v>20171023</v>
+      </c>
+      <c r="C40">
+        <v>3013994685</v>
+      </c>
+      <c r="D40" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40">
+        <v>14443513</v>
+      </c>
+      <c r="F40" t="s">
+        <v>146</v>
+      </c>
+      <c r="G40" t="s">
+        <v>147</v>
+      </c>
+      <c r="H40" t="s">
+        <v>148</v>
+      </c>
+      <c r="I40" t="s">
+        <v>149</v>
+      </c>
+      <c r="J40" t="s">
+        <v>30</v>
+      </c>
+      <c r="K40" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40">
+        <v>115</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>-20</v>
+      </c>
+      <c r="Q40">
+        <v>135</v>
+      </c>
+      <c r="R40">
+        <v>135</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40" t="s">
+        <v>30</v>
+      </c>
+      <c r="U40" t="s">
+        <v>30</v>
+      </c>
+      <c r="V40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>300140362</v>
+      </c>
+      <c r="B41">
+        <v>20171023</v>
+      </c>
+      <c r="C41">
+        <v>3013994716</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>14443550</v>
+      </c>
+      <c r="F41" t="s">
+        <v>151</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
+      <c r="H41" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" t="s">
+        <v>153</v>
+      </c>
+      <c r="J41" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41">
+        <v>115</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>-10</v>
+      </c>
+      <c r="Q41">
+        <v>125</v>
+      </c>
+      <c r="R41">
+        <v>-125</v>
+      </c>
+      <c r="S41" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>904844977</v>
+      </c>
+      <c r="B42">
+        <v>20171023</v>
+      </c>
+      <c r="C42">
+        <v>3013994717</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42">
+        <v>14443555</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+      <c r="H42" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" t="s">
+        <v>145</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42">
+        <v>128</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>-20</v>
+      </c>
+      <c r="Q42">
+        <v>148</v>
+      </c>
+      <c r="R42">
+        <v>148</v>
+      </c>
+      <c r="S42" t="s">
+        <v>30</v>
+      </c>
+      <c r="T42" t="s">
+        <v>30</v>
+      </c>
+      <c r="U42" t="s">
+        <v>30</v>
+      </c>
+      <c r="V42">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>904844978</v>
+      </c>
+      <c r="B43">
+        <v>20171023</v>
+      </c>
+      <c r="C43">
+        <v>3013994722</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43">
+        <v>14443560</v>
+      </c>
+      <c r="F43" t="s">
+        <v>156</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" t="s">
+        <v>158</v>
+      </c>
+      <c r="J43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K43" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43">
+        <v>128</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>-10</v>
+      </c>
+      <c r="Q43">
+        <v>138</v>
+      </c>
+      <c r="R43">
+        <v>138</v>
+      </c>
+      <c r="S43" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" t="s">
+        <v>30</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>904844979</v>
+      </c>
+      <c r="B44">
+        <v>20171023</v>
+      </c>
+      <c r="C44">
+        <v>3013994723</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>14443562</v>
+      </c>
+      <c r="F44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>157</v>
+      </c>
+      <c r="I44" t="s">
+        <v>158</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44">
+        <v>128</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>-10</v>
+      </c>
+      <c r="Q44">
+        <v>138</v>
+      </c>
+      <c r="R44">
+        <v>138</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" t="s">
+        <v>30</v>
+      </c>
+      <c r="U44" t="s">
+        <v>30</v>
+      </c>
+      <c r="V44">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>904844980</v>
+      </c>
+      <c r="B45">
+        <v>20171023</v>
+      </c>
+      <c r="C45">
+        <v>3013994725</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45">
+        <v>14443565</v>
+      </c>
+      <c r="F45" t="s">
+        <v>160</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>161</v>
+      </c>
+      <c r="I45" t="s">
+        <v>162</v>
+      </c>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
+      <c r="K45" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45">
+        <v>115</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>-10</v>
+      </c>
+      <c r="Q45">
+        <v>125</v>
+      </c>
+      <c r="R45">
+        <v>125</v>
+      </c>
+      <c r="S45" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" t="s">
+        <v>30</v>
+      </c>
+      <c r="U45" t="s">
+        <v>30</v>
+      </c>
+      <c r="V45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>904844981</v>
+      </c>
+      <c r="B46">
+        <v>20171023</v>
+      </c>
+      <c r="C46">
+        <v>3013994731</v>
+      </c>
+      <c r="D46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46">
+        <v>14443574</v>
+      </c>
+      <c r="F46" t="s">
+        <v>163</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" t="s">
+        <v>165</v>
+      </c>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46">
+        <v>141</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>-10</v>
+      </c>
+      <c r="Q46">
+        <v>151</v>
+      </c>
+      <c r="R46">
+        <v>151</v>
+      </c>
+      <c r="S46" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" t="s">
+        <v>30</v>
+      </c>
+      <c r="U46" t="s">
+        <v>30</v>
+      </c>
+      <c r="V46">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>904844982</v>
+      </c>
+      <c r="B47">
+        <v>20171023</v>
+      </c>
+      <c r="C47">
+        <v>3013994737</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47">
+        <v>14443581</v>
+      </c>
+      <c r="F47" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" t="s">
+        <v>167</v>
+      </c>
+      <c r="H47" t="s">
+        <v>168</v>
+      </c>
+      <c r="I47" t="s">
+        <v>158</v>
+      </c>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47">
+        <v>128</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>100</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>300140363</v>
+      </c>
+      <c r="B48">
+        <v>20171023</v>
+      </c>
+      <c r="C48">
+        <v>3013994752</v>
+      </c>
+      <c r="D48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48">
+        <v>14443613</v>
+      </c>
+      <c r="F48" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" t="s">
+        <v>169</v>
+      </c>
+      <c r="I48" t="s">
+        <v>170</v>
+      </c>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48">
+        <v>141</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>141</v>
+      </c>
+      <c r="R48">
+        <v>-141</v>
+      </c>
+      <c r="S48" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" t="s">
+        <v>30</v>
+      </c>
+      <c r="U48" t="s">
+        <v>30</v>
+      </c>
+      <c r="V48">
+        <v>-141</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="171">
   <si>
     <t>ORDER</t>
   </si>
@@ -535,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,16 +552,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -569,13 +613,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,7 +1140,7 @@
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="5">
         <v>904844990</v>
       </c>
       <c r="B2">
@@ -1116,7 +1208,7 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>904844840</v>
       </c>
       <c r="B3">
@@ -1184,7 +1276,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>904844841</v>
       </c>
       <c r="B4">
@@ -1252,7 +1344,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>904844937</v>
       </c>
       <c r="B5">
@@ -1320,7 +1412,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>904844937</v>
       </c>
       <c r="B6">
@@ -1388,7 +1480,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>904845020</v>
       </c>
       <c r="B7">
@@ -1456,7 +1548,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>904844957</v>
       </c>
       <c r="B8">
@@ -1524,7 +1616,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>904845021</v>
       </c>
       <c r="B9">
@@ -1592,7 +1684,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>904845022</v>
       </c>
       <c r="B10">
@@ -1660,7 +1752,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>904845023</v>
       </c>
       <c r="B11">
@@ -1728,7 +1820,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>904845023</v>
       </c>
       <c r="B12">
@@ -1796,7 +1888,7 @@
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>904845108</v>
       </c>
       <c r="B13">
@@ -1864,7 +1956,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>904845029</v>
       </c>
       <c r="B14">
@@ -1932,7 +2024,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>904845112</v>
       </c>
       <c r="B15">
@@ -2000,7 +2092,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>904845031</v>
       </c>
       <c r="B16">
@@ -2068,7 +2160,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>904845032</v>
       </c>
       <c r="B17">
@@ -2136,7 +2228,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>904845033</v>
       </c>
       <c r="B18">
@@ -2204,7 +2296,7 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>904845034</v>
       </c>
       <c r="B19">
@@ -2272,7 +2364,7 @@
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>904845035</v>
       </c>
       <c r="B20">
@@ -2340,7 +2432,7 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>904845040</v>
       </c>
       <c r="B21">
@@ -2408,7 +2500,7 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>904845041</v>
       </c>
       <c r="B22">
@@ -2476,7 +2568,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>904845092</v>
       </c>
       <c r="B23">
@@ -4245,17 +4337,1603 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19" customWidth="1"/>
+    <col min="19" max="19" width="20.7109375" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="32" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>904844990</v>
+      </c>
+      <c r="B2" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C2" s="8">
+        <v>3013864909</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="8">
+        <v>13868631</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="9">
+        <v>12</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="8">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8">
+        <v>0</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0</v>
+      </c>
+      <c r="O2" s="8">
+        <v>0</v>
+      </c>
+      <c r="P2" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>15</v>
+      </c>
+      <c r="R2" s="14">
+        <v>180</v>
+      </c>
+      <c r="S2" s="9">
+        <v>12</v>
+      </c>
+      <c r="T2" s="9">
+        <v>180</v>
+      </c>
+      <c r="U2" s="9">
+        <v>6.44</v>
+      </c>
+      <c r="V2" s="8">
+        <v>186.44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>904844840</v>
+      </c>
+      <c r="B3" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C3" s="8">
+        <v>3013986303</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8">
+        <v>14415833</v>
+      </c>
+      <c r="F3" s="8">
+        <v>557023467</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="9">
+        <v>43</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="8">
+        <v>115</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="8">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>100</v>
+      </c>
+      <c r="R3" s="14">
+        <v>4300</v>
+      </c>
+      <c r="S3" s="9">
+        <v>43</v>
+      </c>
+      <c r="T3" s="9">
+        <v>4300</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="8">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>904844841</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3013986305</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="8">
+        <v>14415834</v>
+      </c>
+      <c r="F4" s="8">
+        <v>557023466</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="9">
+        <v>32</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="8">
+        <v>115</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="8">
+        <v>0</v>
+      </c>
+      <c r="P4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>100</v>
+      </c>
+      <c r="R4" s="14">
+        <v>3200</v>
+      </c>
+      <c r="S4" s="9">
+        <v>32</v>
+      </c>
+      <c r="T4" s="9">
+        <v>3200</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="8">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>904844937</v>
+      </c>
+      <c r="B5" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3013989999</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14431089</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9">
+        <v>288</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="8">
+        <v>100</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
+        <v>0</v>
+      </c>
+      <c r="S5" s="9">
+        <v>288</v>
+      </c>
+      <c r="T5" s="9">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>904844937</v>
+      </c>
+      <c r="B6" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3013989999</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="8">
+        <v>14431089</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="9">
+        <v>288</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="8">
+        <v>5.4</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="8">
+        <v>100</v>
+      </c>
+      <c r="P6" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14">
+        <v>0</v>
+      </c>
+      <c r="S6" s="9">
+        <v>288</v>
+      </c>
+      <c r="T6" s="9">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>904845020</v>
+      </c>
+      <c r="B7" s="11">
+        <v>20171023</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3013991893</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="11">
+        <v>14436525</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="12">
+        <v>2</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="11">
+        <v>36</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0</v>
+      </c>
+      <c r="P7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>36</v>
+      </c>
+      <c r="R7" s="15">
+        <v>72</v>
+      </c>
+      <c r="S7" s="12">
+        <v>2</v>
+      </c>
+      <c r="T7" s="12">
+        <v>72</v>
+      </c>
+      <c r="U7" s="12">
+        <v>10</v>
+      </c>
+      <c r="V7" s="11">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>904845021</v>
+      </c>
+      <c r="B8" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3013991943</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8">
+        <v>14436589</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="8">
+        <v>36</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
+      <c r="P8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>36</v>
+      </c>
+      <c r="R8" s="8">
+        <v>36</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1</v>
+      </c>
+      <c r="T8" s="9">
+        <v>36</v>
+      </c>
+      <c r="U8" s="9">
+        <v>21.09</v>
+      </c>
+      <c r="V8" s="8">
+        <v>57.09</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>904845022</v>
+      </c>
+      <c r="B9" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3013991944</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="8">
+        <v>14436590</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="8">
+        <v>36</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>36</v>
+      </c>
+      <c r="R9" s="8">
+        <v>72</v>
+      </c>
+      <c r="S9" s="9">
+        <v>2</v>
+      </c>
+      <c r="T9" s="9">
+        <v>72</v>
+      </c>
+      <c r="U9" s="9">
+        <v>10.02</v>
+      </c>
+      <c r="V9" s="8">
+        <v>82.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>904845023</v>
+      </c>
+      <c r="B10" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3013991946</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="8">
+        <v>14436598</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="8">
+        <v>15</v>
+      </c>
+      <c r="M10" s="8">
+        <v>0</v>
+      </c>
+      <c r="N10" s="8">
+        <v>0</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="8">
+        <v>-5</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>20</v>
+      </c>
+      <c r="R10" s="8">
+        <v>40</v>
+      </c>
+      <c r="S10" s="10">
+        <v>3</v>
+      </c>
+      <c r="T10" s="9">
+        <v>110</v>
+      </c>
+      <c r="U10" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="V10" s="8">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>904845023</v>
+      </c>
+      <c r="B11" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3013991946</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8">
+        <v>14436598</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="8">
+        <v>60</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0</v>
+      </c>
+      <c r="P11" s="8">
+        <v>-10</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>70</v>
+      </c>
+      <c r="R11" s="8">
+        <v>70</v>
+      </c>
+      <c r="S11" s="10">
+        <v>3</v>
+      </c>
+      <c r="T11" s="9">
+        <v>110</v>
+      </c>
+      <c r="U11" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="V11" s="8">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>904845108</v>
+      </c>
+      <c r="B12" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3013992523</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="8">
+        <v>14439384</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="8">
+        <v>115</v>
+      </c>
+      <c r="M12" s="8">
+        <v>10</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="R12" s="8">
+        <v>103.5</v>
+      </c>
+      <c r="S12" s="9">
+        <v>1</v>
+      </c>
+      <c r="T12" s="9">
+        <v>103.5</v>
+      </c>
+      <c r="U12" s="9">
+        <v>5</v>
+      </c>
+      <c r="V12" s="8">
+        <v>114.97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>904845029</v>
+      </c>
+      <c r="B13" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3013992639</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14439590</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="9">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="8">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8">
+        <v>25</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>11.25</v>
+      </c>
+      <c r="R13" s="8">
+        <v>56.25</v>
+      </c>
+      <c r="S13" s="9">
+        <v>5</v>
+      </c>
+      <c r="T13" s="9">
+        <v>56.25</v>
+      </c>
+      <c r="U13" s="9">
+        <v>5</v>
+      </c>
+      <c r="V13" s="8">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>904845112</v>
+      </c>
+      <c r="B14" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3013992785</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="8">
+        <v>14439831</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="8">
+        <v>128</v>
+      </c>
+      <c r="M14" s="8">
+        <v>10</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>115.2</v>
+      </c>
+      <c r="R14" s="8">
+        <v>115.2</v>
+      </c>
+      <c r="S14" s="9">
+        <v>1</v>
+      </c>
+      <c r="T14" s="9">
+        <v>115.2</v>
+      </c>
+      <c r="U14" s="9">
+        <v>5</v>
+      </c>
+      <c r="V14" s="8">
+        <v>120.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>904845031</v>
+      </c>
+      <c r="B15" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3013992896</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="8">
+        <v>14440336</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="8">
+        <v>128</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>128</v>
+      </c>
+      <c r="R15" s="8">
+        <v>128</v>
+      </c>
+      <c r="S15" s="9">
+        <v>1</v>
+      </c>
+      <c r="T15" s="9">
+        <v>128</v>
+      </c>
+      <c r="U15" s="9">
+        <v>15</v>
+      </c>
+      <c r="V15" s="8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>904845032</v>
+      </c>
+      <c r="B16" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3013992902</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14440342</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="9">
+        <v>12</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="R16" s="8">
+        <v>162</v>
+      </c>
+      <c r="S16" s="9">
+        <v>12</v>
+      </c>
+      <c r="T16" s="9">
+        <v>162</v>
+      </c>
+      <c r="U16" s="9">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="V16" s="8">
+        <v>170.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>904845033</v>
+      </c>
+      <c r="B17" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3013992910</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8">
+        <v>14440351</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="9">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="8">
+        <v>45</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>45</v>
+      </c>
+      <c r="R17" s="8">
+        <v>45</v>
+      </c>
+      <c r="S17" s="9">
+        <v>1</v>
+      </c>
+      <c r="T17" s="9">
+        <v>45</v>
+      </c>
+      <c r="U17" s="9">
+        <v>6.72</v>
+      </c>
+      <c r="V17" s="8">
+        <v>51.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>904845034</v>
+      </c>
+      <c r="B18" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C18" s="8">
+        <v>3013992912</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="8">
+        <v>14440354</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="8">
+        <v>145</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>145</v>
+      </c>
+      <c r="R18" s="8">
+        <v>145</v>
+      </c>
+      <c r="S18" s="9">
+        <v>1</v>
+      </c>
+      <c r="T18" s="9">
+        <v>145</v>
+      </c>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>904845035</v>
+      </c>
+      <c r="B19" s="17">
+        <v>20171023</v>
+      </c>
+      <c r="C19" s="17">
+        <v>3013992930</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="17">
+        <v>14440375</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="18">
+        <v>2</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="17">
+        <v>64</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>64</v>
+      </c>
+      <c r="R19" s="17">
+        <v>128</v>
+      </c>
+      <c r="S19" s="18">
+        <v>2</v>
+      </c>
+      <c r="T19" s="18">
+        <v>128</v>
+      </c>
+      <c r="U19" s="18">
+        <v>30</v>
+      </c>
+      <c r="V19" s="17">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>904845040</v>
+      </c>
+      <c r="B20" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3013992955</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="8">
+        <v>14440408</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="8">
+        <v>150</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>130</v>
+      </c>
+      <c r="R20" s="8">
+        <v>130</v>
+      </c>
+      <c r="S20" s="9">
+        <v>1</v>
+      </c>
+      <c r="T20" s="9">
+        <v>130</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="8">
+        <v>130</v>
+      </c>
+      <c r="W20" s="8"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>904845092</v>
+      </c>
+      <c r="B21" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3013992990</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="8">
+        <v>14440453</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4058</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="8">
+        <v>25</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>24.5</v>
+      </c>
+      <c r="R21" s="8">
+        <v>147</v>
+      </c>
+      <c r="S21" s="19">
+        <v>6</v>
+      </c>
+      <c r="T21" s="9">
+        <v>147</v>
+      </c>
+      <c r="U21" s="9">
+        <v>13.27</v>
+      </c>
+      <c r="V21" s="8">
+        <v>160.27000000000001</v>
+      </c>
+      <c r="W21" s="8"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>904845047</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C22" s="8">
+        <v>3013993022</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="8">
+        <v>14440494</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="9">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="8">
+        <v>141</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>141</v>
+      </c>
+      <c r="R22" s="8">
+        <v>141</v>
+      </c>
+      <c r="S22" s="9">
+        <v>1</v>
+      </c>
+      <c r="T22" s="9">
+        <v>141</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="8">
+        <v>141</v>
+      </c>
+      <c r="W22" s="8"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>904845094</v>
+      </c>
+      <c r="B23" s="8">
+        <v>20171023</v>
+      </c>
+      <c r="C23" s="8">
+        <v>3013993102</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="8">
+        <v>14440584</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="8">
+        <v>200</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>170</v>
+      </c>
+      <c r="R23" s="8">
+        <v>170</v>
+      </c>
+      <c r="S23" s="8">
+        <v>1</v>
+      </c>
+      <c r="T23" s="8">
+        <v>170</v>
+      </c>
+      <c r="U23" s="8">
+        <v>15</v>
+      </c>
+      <c r="V23" s="8">
+        <v>185</v>
+      </c>
+      <c r="W23" s="8"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Old Invoices" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="271">
   <si>
     <t>ORDER</t>
   </si>
@@ -529,6 +530,306 @@
   </si>
   <si>
     <t xml:space="preserve">Players 14 Stand Bag Custom                                 </t>
+  </si>
+  <si>
+    <t>904845552</t>
+  </si>
+  <si>
+    <t>20171025</t>
+  </si>
+  <si>
+    <t>3013953706</t>
+  </si>
+  <si>
+    <t>14258881</t>
+  </si>
+  <si>
+    <t>US00026239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pom Pom Winter Hat Asst.      </t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>6.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90.00</t>
+  </si>
+  <si>
+    <t>904845630</t>
+  </si>
+  <si>
+    <t>3013996080</t>
+  </si>
+  <si>
+    <t>14446757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WASHINGTON DUKE     </t>
+  </si>
+  <si>
+    <t>USEE000001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5TVWRLR      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro Wheeled Roller Bag Black  </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.00</t>
+  </si>
+  <si>
+    <t>904845629</t>
+  </si>
+  <si>
+    <t>3013996079</t>
+  </si>
+  <si>
+    <t>14446756</t>
+  </si>
+  <si>
+    <t>USEM000044</t>
+  </si>
+  <si>
+    <t>904845557</t>
+  </si>
+  <si>
+    <t>3013965607</t>
+  </si>
+  <si>
+    <t>14320931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POM/POMS            </t>
+  </si>
+  <si>
+    <t>US00033077</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 180.00</t>
+  </si>
+  <si>
+    <t>904845587</t>
+  </si>
+  <si>
+    <t>3013996644</t>
+  </si>
+  <si>
+    <t>14447662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOM              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA5ACMFTWLC    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waffle Microfiber Towel CST   </t>
+  </si>
+  <si>
+    <t>17.00</t>
+  </si>
+  <si>
+    <t>9.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17.00</t>
+  </si>
+  <si>
+    <t>904845652</t>
+  </si>
+  <si>
+    <t>3013996239</t>
+  </si>
+  <si>
+    <t>14446940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CART MITTS          </t>
+  </si>
+  <si>
+    <t>US00059139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA7WEACM-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titleist Cart Mitts           </t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>9.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 135.00</t>
+  </si>
+  <si>
+    <t>904845551</t>
+  </si>
+  <si>
+    <t>3013953151</t>
+  </si>
+  <si>
+    <t>14257783</t>
+  </si>
+  <si>
+    <t>US00031646</t>
+  </si>
+  <si>
+    <t>9.11</t>
+  </si>
+  <si>
+    <t>904845583</t>
+  </si>
+  <si>
+    <t>3013995773</t>
+  </si>
+  <si>
+    <t>14446306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S                   </t>
+  </si>
+  <si>
+    <t>US00060065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7VTP-P12     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour Perf Visor Legacy Asst   </t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 96.00</t>
+  </si>
+  <si>
+    <t>904845651</t>
+  </si>
+  <si>
+    <t>3013996237</t>
+  </si>
+  <si>
+    <t>14446939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WINTER CAPS         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifestyle Beanie Legacy Asst  </t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 75.00</t>
+  </si>
+  <si>
+    <t>904845581</t>
+  </si>
+  <si>
+    <t>3013995485</t>
+  </si>
+  <si>
+    <t>14445845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THOMAS              </t>
+  </si>
+  <si>
+    <t>US00002681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TH7ASC-P06     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tour Snapback Asst.           </t>
+  </si>
+  <si>
+    <t>904845578</t>
+  </si>
+  <si>
+    <t>3013995270</t>
+  </si>
+  <si>
+    <t>14445144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WLA001716-27        </t>
+  </si>
+  <si>
+    <t>US00057861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TA1ACFVP-0     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleece Valuables Pouch        </t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>5.88</t>
+  </si>
+  <si>
+    <t>23.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.52</t>
   </si>
 </sst>
 </file>
@@ -645,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -668,6 +969,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,68 +1272,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>3013686313</v>
-      </c>
-      <c r="B2">
-        <v>904492748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3013684370</v>
-      </c>
-      <c r="B4">
-        <v>904492469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3013688560</v>
-      </c>
-      <c r="B5">
-        <v>904493578</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3013686777</v>
-      </c>
-      <c r="B6">
-        <v>904493242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3013686776</v>
-      </c>
-      <c r="B7">
-        <v>904493314</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="U6" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="V6" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>223</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="J9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="U9" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V9" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="S10" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="U10" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="V10" s="21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="S11" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>268</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1042,7 +2129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
@@ -5936,4 +7023,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3013686313</v>
+      </c>
+      <c r="B2">
+        <v>904492748</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3013684370</v>
+      </c>
+      <c r="B3">
+        <v>904492469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3013688560</v>
+      </c>
+      <c r="B4">
+        <v>904493578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3013686777</v>
+      </c>
+      <c r="B5">
+        <v>904493242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3013686776</v>
+      </c>
+      <c r="B6">
+        <v>904493314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -1272,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,40 +1374,40 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M2" s="21" t="s">
         <v>179</v>
@@ -1416,51 +1416,51 @@
         <v>179</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P2" s="21" t="s">
         <v>179</v>
       </c>
       <c r="Q2" s="21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="S2" s="21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="T2" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>188</v>
@@ -1510,40 +1510,40 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="M4" s="21" t="s">
         <v>179</v>
@@ -1552,66 +1552,66 @@
         <v>179</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="P4" s="21" t="s">
         <v>179</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="R4" s="21" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="T4" s="21" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="U4" s="21" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>193</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>199</v>
+        <v>243</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="K5" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="M5" s="21" t="s">
         <v>179</v>
@@ -1626,187 +1626,51 @@
         <v>179</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="U5" s="21" t="s">
-        <v>204</v>
+        <v>249</v>
       </c>
       <c r="V5" s="21" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>211</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="K6" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="M6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="O6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="P6" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q6" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="R6" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="S6" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="T6" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="U6" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>220</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="O7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="S7" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="T7" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>229</v>
+        <v>175</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>220</v>
+        <v>28</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>177</v>
@@ -1815,7 +1679,7 @@
         <v>31</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="M8" s="21" t="s">
         <v>179</v>
@@ -1830,51 +1694,51 @@
         <v>179</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>222</v>
+        <v>178</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="S8" s="21" t="s">
         <v>177</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="U8" s="21" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="V8" s="21" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>236</v>
+        <v>28</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>237</v>
+        <v>176</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>203</v>
@@ -1883,7 +1747,7 @@
         <v>31</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>238</v>
+        <v>178</v>
       </c>
       <c r="M9" s="21" t="s">
         <v>179</v>
@@ -1898,60 +1762,60 @@
         <v>179</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="S9" s="21" t="s">
         <v>203</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="U9" s="21" t="s">
         <v>204</v>
       </c>
       <c r="V9" s="21" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>219</v>
+        <v>45</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="K10" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="M10" s="21" t="s">
         <v>179</v>
@@ -1966,51 +1830,51 @@
         <v>179</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="U10" s="21" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>250</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>254</v>
+        <v>62</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>177</v>
@@ -2019,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>179</v>
@@ -2034,66 +1898,66 @@
         <v>179</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>177</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="U11" s="21" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="V11" s="21" t="s">
-        <v>182</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>172</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="K12" s="21" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="21" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="M12" s="21" t="s">
         <v>179</v>
       </c>
       <c r="N12" s="21" t="s">
-        <v>267</v>
+        <v>179</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>179</v>
@@ -2102,21 +1966,157 @@
         <v>179</v>
       </c>
       <c r="Q12" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="R12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="S12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="U12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="V12" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="J13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="S13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="U13" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="V13" s="21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q14" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R14" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S14" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T14" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U14" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V14" s="21" t="s">
         <v>270</v>
       </c>
     </row>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="275">
   <si>
     <t>ORDER</t>
   </si>
@@ -830,13 +830,26 @@
   </si>
   <si>
     <t xml:space="preserve"> 23.52</t>
+  </si>
+  <si>
+    <t>Disc 3 value is 10.0 in invoice</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Unit price and U/M not read properly, need to increase Y cordinates</t>
+  </si>
+  <si>
+    <t>Customer PO and Item Code naming convention differs.
+Also Net price is negative, fails to compare negative price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -857,6 +870,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -901,7 +921,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -960,17 +980,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,849 +1300,849 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="17" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="17" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="21" t="s">
+      <c r="K2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="P2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U2" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="V2" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="21" t="s">
+      <c r="K3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="V3" s="17" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="21" t="s">
+      <c r="J4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="21" t="s">
+      <c r="K4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="21" t="s">
+      <c r="O4" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P4" s="21" t="s">
+      <c r="P4" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="21" t="s">
+      <c r="S4" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="V4" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="21" t="s">
+      <c r="K5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="21" t="s">
+      <c r="M5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="N5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="21" t="s">
+      <c r="P5" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="Q5" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="V5" s="17" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="21" t="s">
+      <c r="K8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="M8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="N8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="P8" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="Q8" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="S8" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="U8" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="V8" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="G9" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="21" t="s">
+      <c r="K9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="21" t="s">
+      <c r="P9" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="Q9" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="21" t="s">
+      <c r="R9" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="T9" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="U9" s="21" t="s">
+      <c r="U9" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="V9" s="21" t="s">
+      <c r="V9" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="21" t="s">
+      <c r="K10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q10" s="21" t="s">
+      <c r="Q10" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="R10" s="21" t="s">
+      <c r="R10" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="S10" s="21" t="s">
+      <c r="S10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="T10" s="21" t="s">
+      <c r="T10" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="21" t="s">
+      <c r="U10" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="V10" s="21" t="s">
+      <c r="V10" s="17" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="21" t="s">
+      <c r="K11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="M11" s="21" t="s">
+      <c r="M11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="21" t="s">
+      <c r="O11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P11" s="21" t="s">
+      <c r="P11" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q11" s="21" t="s">
+      <c r="Q11" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="R11" s="21" t="s">
+      <c r="R11" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="S11" s="21" t="s">
+      <c r="S11" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="V11" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="21" t="s">
+      <c r="J12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="21" t="s">
+      <c r="K12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="21" t="s">
+      <c r="M12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N12" s="21" t="s">
+      <c r="N12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O12" s="21" t="s">
+      <c r="O12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P12" s="21" t="s">
+      <c r="P12" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" s="21" t="s">
+      <c r="Q12" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="R12" s="21" t="s">
+      <c r="R12" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="S12" s="21" t="s">
+      <c r="S12" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="T12" s="21" t="s">
+      <c r="T12" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="U12" s="21" t="s">
+      <c r="U12" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="V12" s="21" t="s">
+      <c r="V12" s="17" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="21" t="s">
+      <c r="K13" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="21" t="s">
+      <c r="M13" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="21" t="s">
+      <c r="N13" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="U13" s="21" t="s">
+      <c r="U13" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="V13" s="21" t="s">
+      <c r="V13" s="17" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="21" t="s">
+      <c r="G14" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="17" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="21" t="s">
+      <c r="K14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="M14" s="21" t="s">
+      <c r="M14" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="21" t="s">
+      <c r="N14" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="T14" s="21" t="s">
+      <c r="T14" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="U14" s="21" t="s">
+      <c r="U14" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="V14" s="21" t="s">
+      <c r="V14" s="17" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2129,11 +2155,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -2155,6 +2183,7 @@
     <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="62" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2224,7 +2253,9 @@
       <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1"/>
+      <c r="W1" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
@@ -3246,7 +3277,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>904845032</v>
       </c>
@@ -3314,7 +3345,7 @@
         <v>170.78</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>904845033</v>
       </c>
@@ -3382,7 +3413,7 @@
         <v>51.72</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>904845034</v>
       </c>
@@ -3450,7 +3481,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>904845035</v>
       </c>
@@ -3518,7 +3549,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>904845040</v>
       </c>
@@ -3586,7 +3617,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>904845041</v>
       </c>
@@ -3654,7 +3685,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>904845092</v>
       </c>
@@ -3722,8 +3753,8 @@
         <v>160.27000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>904845047</v>
       </c>
       <c r="B24">
@@ -3790,7 +3821,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>904845094</v>
       </c>
@@ -3858,8 +3889,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>904845083</v>
       </c>
       <c r="B26">
@@ -3926,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>904845055</v>
       </c>
@@ -3994,7 +4025,7 @@
         <v>157.79</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>904845059</v>
       </c>
@@ -4062,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>904845084</v>
       </c>
@@ -4130,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>904845064</v>
       </c>
@@ -4198,75 +4229,78 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
         <v>904845065</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="23">
         <v>20171023</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="23">
         <v>3013993906</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="23">
         <v>14441597</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31">
+      <c r="J31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="23">
         <v>40</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>30</v>
-      </c>
-      <c r="R31">
-        <v>30</v>
-      </c>
-      <c r="S31" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V31">
+      <c r="M31" s="23">
+        <v>0</v>
+      </c>
+      <c r="N31" s="23">
+        <v>0</v>
+      </c>
+      <c r="O31" s="23">
+        <v>0</v>
+      </c>
+      <c r="P31" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="23">
+        <v>30</v>
+      </c>
+      <c r="R31" s="23">
+        <v>30</v>
+      </c>
+      <c r="S31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="23">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="23" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>904845100</v>
       </c>
@@ -4334,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>904845071</v>
       </c>
@@ -4402,7 +4436,7 @@
         <v>418.18</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>904845074</v>
       </c>
@@ -4470,7 +4504,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>904845076</v>
       </c>
@@ -4538,7 +4572,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>904845077</v>
       </c>
@@ -4606,7 +4640,7 @@
         <v>82.32</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>904845078</v>
       </c>
@@ -4674,7 +4708,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>904844974</v>
       </c>
@@ -4742,7 +4776,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>904844975</v>
       </c>
@@ -4810,7 +4844,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>904844976</v>
       </c>
@@ -4878,75 +4912,78 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:23" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
         <v>300140362</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="23">
         <v>20171023</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="23">
         <v>3013994716</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="23">
         <v>14443550</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="J41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41">
+      <c r="J41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="23">
         <v>115</v>
       </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="M41" s="23">
+        <v>0</v>
+      </c>
+      <c r="N41" s="23">
+        <v>0</v>
+      </c>
+      <c r="O41" s="23">
+        <v>0</v>
+      </c>
+      <c r="P41" s="23">
         <v>-10</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="23">
         <v>125</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="23">
         <v>-125</v>
       </c>
-      <c r="S41" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" t="s">
-        <v>30</v>
-      </c>
-      <c r="V41">
+      <c r="S41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" s="23">
         <v>-130</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>904844977</v>
       </c>
@@ -5014,7 +5051,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>904844978</v>
       </c>
@@ -5082,7 +5119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>904844979</v>
       </c>
@@ -5150,7 +5187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>904844980</v>
       </c>
@@ -5218,7 +5255,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>904844981</v>
       </c>
@@ -5286,75 +5323,78 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
         <v>904844982</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="23">
         <v>20171023</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="23">
         <v>3013994737</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="23">
         <v>14443581</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="J47" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47">
+      <c r="J47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="23">
         <v>128</v>
       </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
+      <c r="M47" s="23">
+        <v>0</v>
+      </c>
+      <c r="N47" s="23">
+        <v>0</v>
+      </c>
+      <c r="O47" s="23">
         <v>100</v>
       </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" t="s">
-        <v>30</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="P47" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="23">
+        <v>0</v>
+      </c>
+      <c r="R47" s="23">
+        <v>0</v>
+      </c>
+      <c r="S47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="23">
+        <v>0</v>
+      </c>
+      <c r="W47" s="23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>300140363</v>
       </c>
@@ -5433,7 +5473,7 @@
   <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A23"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5573,7 +5613,7 @@
       <c r="Q2" s="8">
         <v>15</v>
       </c>
-      <c r="R2" s="14">
+      <c r="R2" s="11">
         <v>180</v>
       </c>
       <c r="S2" s="9">
@@ -5641,7 +5681,7 @@
       <c r="Q3" s="8">
         <v>100</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="11">
         <v>4300</v>
       </c>
       <c r="S3" s="9">
@@ -5709,7 +5749,7 @@
       <c r="Q4" s="8">
         <v>100</v>
       </c>
-      <c r="R4" s="14">
+      <c r="R4" s="11">
         <v>3200</v>
       </c>
       <c r="S4" s="9">
@@ -5726,7 +5766,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="19">
         <v>904844937</v>
       </c>
       <c r="B5" s="8">
@@ -5777,7 +5817,7 @@
       <c r="Q5" s="8">
         <v>0</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="11">
         <v>0</v>
       </c>
       <c r="S5" s="9">
@@ -5794,7 +5834,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="19">
         <v>904844937</v>
       </c>
       <c r="B6" s="8">
@@ -5845,7 +5885,7 @@
       <c r="Q6" s="8">
         <v>0</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="11">
         <v>0</v>
       </c>
       <c r="S6" s="9">
@@ -5861,71 +5901,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+    <row r="7" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
         <v>904845020</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="20">
         <v>20171023</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="20">
         <v>3013991893</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="20">
         <v>14436525</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="15">
         <v>2</v>
       </c>
-      <c r="K7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="K7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="20">
         <v>36</v>
       </c>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-      <c r="O7" s="11">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="11">
+      <c r="M7" s="20">
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
         <v>36</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="21">
         <v>72</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="15">
         <v>2</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="15">
         <v>72</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="15">
         <v>10</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="20">
         <v>82.02</v>
       </c>
     </row>
@@ -6066,7 +6106,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="19">
         <v>904845023</v>
       </c>
       <c r="B10" s="8">
@@ -6134,7 +6174,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>904845023</v>
       </c>
       <c r="B11" s="8">
@@ -6676,70 +6716,70 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="12">
         <v>904845035</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="13">
         <v>20171023</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="13">
         <v>3013992930</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="13">
         <v>14440375</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="I19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="14">
         <v>2</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="17">
+      <c r="K19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="13">
         <v>64</v>
       </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="17">
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
         <v>64</v>
       </c>
-      <c r="R19" s="17">
+      <c r="R19" s="13">
         <v>128</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="14">
         <v>2</v>
       </c>
-      <c r="T19" s="18">
+      <c r="T19" s="14">
         <v>128</v>
       </c>
-      <c r="U19" s="18">
-        <v>30</v>
-      </c>
-      <c r="V19" s="17">
+      <c r="U19" s="14">
+        <v>30</v>
+      </c>
+      <c r="V19" s="13">
         <v>158</v>
       </c>
     </row>
@@ -6867,7 +6907,7 @@
       <c r="R21" s="8">
         <v>147</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="15">
         <v>6</v>
       </c>
       <c r="T21" s="9">

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
@@ -882,7 +882,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,18 +892,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,6 +910,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,17 +965,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -992,11 +984,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1306,843 +1300,843 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="6" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="17"/>
+    <col min="1" max="1" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" style="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="U2" s="17" t="s">
+      <c r="U2" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="K3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="17" t="s">
+      <c r="K3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="15" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="17" t="s">
+      <c r="K5" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="R5" s="17" t="s">
+      <c r="R5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="S5" s="17" t="s">
+      <c r="S5" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="T5" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="15" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="17" t="s">
+      <c r="K8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="N8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O8" s="17" t="s">
+      <c r="O8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="R8" s="17" t="s">
+      <c r="R8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T8" s="17" t="s">
+      <c r="T8" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N9" s="17" t="s">
+      <c r="N9" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O9" s="17" t="s">
+      <c r="O9" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P9" s="17" t="s">
+      <c r="P9" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="R9" s="17" t="s">
+      <c r="R9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="S9" s="17" t="s">
+      <c r="S9" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="T9" s="17" t="s">
+      <c r="T9" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="15" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E10" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="K10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="17" t="s">
+      <c r="K10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O10" s="17" t="s">
+      <c r="O10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="R10" s="17" t="s">
+      <c r="R10" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="S10" s="17" t="s">
+      <c r="S10" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="T10" s="17" t="s">
+      <c r="T10" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="V10" s="17" t="s">
+      <c r="V10" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="17" t="s">
+      <c r="K11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="17" t="s">
+      <c r="O11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P11" s="17" t="s">
+      <c r="P11" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="R11" s="17" t="s">
+      <c r="R11" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="S11" s="17" t="s">
+      <c r="S11" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T11" s="17" t="s">
+      <c r="T11" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="V11" s="17" t="s">
+      <c r="V11" s="15" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="N12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O12" s="17" t="s">
+      <c r="O12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P12" s="17" t="s">
+      <c r="P12" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="R12" s="17" t="s">
+      <c r="R12" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="S12" s="17" t="s">
+      <c r="S12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="T12" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="15" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="17" t="s">
+      <c r="K13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N13" s="17" t="s">
+      <c r="N13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="O13" s="17" t="s">
+      <c r="O13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="17" t="s">
+      <c r="P13" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="R13" s="17" t="s">
+      <c r="R13" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="S13" s="17" t="s">
+      <c r="S13" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="T13" s="17" t="s">
+      <c r="T13" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="15" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G14" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="K14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="17" t="s">
+      <c r="K14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="O14" s="17" t="s">
+      <c r="O14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="P14" s="17" t="s">
+      <c r="P14" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="R14" s="17" t="s">
+      <c r="R14" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="S14" s="17" t="s">
+      <c r="S14" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="T14" s="17" t="s">
+      <c r="T14" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="15" t="s">
         <v>270</v>
       </c>
     </row>
@@ -2155,10 +2149,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2183,7 +2177,7 @@
     <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="62" style="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="62" style="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -2253,12 +2247,12 @@
       <c r="V1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="22" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="2">
         <v>904844990</v>
       </c>
       <c r="B2">
@@ -2462,7 +2456,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="25">
         <v>904844937</v>
       </c>
       <c r="B5">
@@ -2530,7 +2524,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="25">
         <v>904844937</v>
       </c>
       <c r="B6">
@@ -2666,7 +2660,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="25">
         <v>904844957</v>
       </c>
       <c r="B8">
@@ -2870,7 +2864,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="25">
         <v>904845023</v>
       </c>
       <c r="B11">
@@ -2938,7 +2932,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="25">
         <v>904845023</v>
       </c>
       <c r="B12">
@@ -3074,7 +3068,7 @@
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="2">
         <v>904845029</v>
       </c>
       <c r="B14">
@@ -3142,7 +3136,7 @@
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="2">
         <v>904845112</v>
       </c>
       <c r="B15">
@@ -3210,7 +3204,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="2">
         <v>904845031</v>
       </c>
       <c r="B16">
@@ -3278,7 +3272,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="24">
         <v>904845032</v>
       </c>
       <c r="B17">
@@ -3346,7 +3340,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="24">
         <v>904845033</v>
       </c>
       <c r="B18">
@@ -3414,7 +3408,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="24">
         <v>904845034</v>
       </c>
       <c r="B19">
@@ -3482,7 +3476,7 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="24">
         <v>904845035</v>
       </c>
       <c r="B20">
@@ -3550,7 +3544,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="24">
         <v>904845040</v>
       </c>
       <c r="B21">
@@ -3618,7 +3612,7 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="A22" s="24">
         <v>904845041</v>
       </c>
       <c r="B22">
@@ -3686,7 +3680,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>904845092</v>
       </c>
       <c r="B23">
@@ -3754,7 +3748,7 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>904845047</v>
       </c>
       <c r="B24">
@@ -3890,7 +3884,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>904845083</v>
       </c>
       <c r="B26">
@@ -4229,74 +4223,74 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+    <row r="31" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
         <v>904845065</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>20171023</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <v>3013993906</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="21">
         <v>14441597</v>
       </c>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H31" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L31" s="23">
+      <c r="J31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="21">
         <v>40</v>
       </c>
-      <c r="M31" s="23">
-        <v>0</v>
-      </c>
-      <c r="N31" s="23">
-        <v>0</v>
-      </c>
-      <c r="O31" s="23">
-        <v>0</v>
-      </c>
-      <c r="P31" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23">
-        <v>30</v>
-      </c>
-      <c r="R31" s="23">
-        <v>30</v>
-      </c>
-      <c r="S31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="V31" s="23">
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
+      <c r="O31" s="21">
+        <v>0</v>
+      </c>
+      <c r="P31" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="21">
+        <v>30</v>
+      </c>
+      <c r="R31" s="21">
+        <v>30</v>
+      </c>
+      <c r="S31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31" s="21">
         <v>32</v>
       </c>
-      <c r="W31" s="23" t="s">
+      <c r="W31" s="21" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4912,74 +4906,74 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+    <row r="41" spans="1:23" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
         <v>300140362</v>
       </c>
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>20171023</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="21">
         <v>3013994716</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="21">
         <v>14443550</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="F41" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G41" s="23" t="s">
+      <c r="G41" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="H41" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K41" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="23">
+      <c r="J41" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="21">
         <v>115</v>
       </c>
-      <c r="M41" s="23">
-        <v>0</v>
-      </c>
-      <c r="N41" s="23">
-        <v>0</v>
-      </c>
-      <c r="O41" s="23">
-        <v>0</v>
-      </c>
-      <c r="P41" s="23">
+      <c r="M41" s="21">
+        <v>0</v>
+      </c>
+      <c r="N41" s="21">
+        <v>0</v>
+      </c>
+      <c r="O41" s="21">
+        <v>0</v>
+      </c>
+      <c r="P41" s="21">
         <v>-10</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="21">
         <v>125</v>
       </c>
-      <c r="R41" s="23">
+      <c r="R41" s="21">
         <v>-125</v>
       </c>
-      <c r="S41" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T41" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U41" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="V41" s="23">
+      <c r="S41" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U41" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V41" s="21">
         <v>-130</v>
       </c>
-      <c r="W41" s="25" t="s">
+      <c r="W41" s="23" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5323,74 +5317,74 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+    <row r="47" spans="1:23" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
         <v>904844982</v>
       </c>
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>20171023</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <v>3013994737</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <v>14443581</v>
       </c>
-      <c r="F47" s="23" t="s">
+      <c r="F47" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="H47" s="23" t="s">
+      <c r="H47" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I47" s="23" t="s">
+      <c r="I47" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K47" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L47" s="23">
+      <c r="J47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="21">
         <v>128</v>
       </c>
-      <c r="M47" s="23">
-        <v>0</v>
-      </c>
-      <c r="N47" s="23">
-        <v>0</v>
-      </c>
-      <c r="O47" s="23">
+      <c r="M47" s="21">
+        <v>0</v>
+      </c>
+      <c r="N47" s="21">
+        <v>0</v>
+      </c>
+      <c r="O47" s="21">
         <v>100</v>
       </c>
-      <c r="P47" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="23">
-        <v>0</v>
-      </c>
-      <c r="R47" s="23">
-        <v>0</v>
-      </c>
-      <c r="S47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="V47" s="23">
-        <v>0</v>
-      </c>
-      <c r="W47" s="23" t="s">
+      <c r="P47" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>0</v>
+      </c>
+      <c r="R47" s="21">
+        <v>0</v>
+      </c>
+      <c r="S47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="U47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="V47" s="21">
+        <v>0</v>
+      </c>
+      <c r="W47" s="21" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5493,1571 +5487,1571 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W1" s="1"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="5">
         <v>904844990</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>20171023</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="6">
         <v>3013864909</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>13868631</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="7">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="8">
+      <c r="K2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6">
         <v>15</v>
       </c>
-      <c r="M2" s="8">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="6">
         <v>15</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="9">
         <v>180</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="7">
         <v>12</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="7">
         <v>180</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="7">
         <v>6.44</v>
       </c>
-      <c r="V2" s="8">
+      <c r="V2" s="6">
         <v>186.44</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="5">
         <v>904844840</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="6">
         <v>20171023</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>3013986303</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>14415833</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>557023467</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>43</v>
       </c>
-      <c r="K3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="8">
+      <c r="K3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="6">
         <v>115</v>
       </c>
-      <c r="M3" s="8">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="8">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
         <v>100</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>4300</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="7">
         <v>43</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="7">
         <v>4300</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V3" s="8">
+      <c r="U3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="6">
         <v>4300</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>904844841</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>20171023</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>3013986305</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>14415834</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>557023466</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>32</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="8">
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="6">
         <v>115</v>
       </c>
-      <c r="M4" s="8">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8">
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
         <v>100</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="9">
         <v>3200</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="7">
         <v>32</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="7">
         <v>3200</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V4" s="8">
+      <c r="U4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="6">
         <v>3200</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="17">
         <v>904844937</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>20171023</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>3013989999</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>14431089</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>288</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="8">
+      <c r="K5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="6">
         <v>5.4</v>
       </c>
-      <c r="M5" s="8">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8">
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
         <v>100</v>
       </c>
-      <c r="P5" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>0</v>
-      </c>
-      <c r="R5" s="11">
-        <v>0</v>
-      </c>
-      <c r="S5" s="9">
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0</v>
+      </c>
+      <c r="S5" s="7">
         <v>288</v>
       </c>
-      <c r="T5" s="9">
-        <v>0</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="8">
+      <c r="T5" s="7">
+        <v>0</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
+      <c r="A6" s="17">
         <v>904844937</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>20171023</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>3013989999</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>14431089</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>288</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="8">
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="6">
         <v>5.4</v>
       </c>
-      <c r="M6" s="8">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="8">
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
         <v>100</v>
       </c>
-      <c r="P6" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>0</v>
-      </c>
-      <c r="R6" s="11">
-        <v>0</v>
-      </c>
-      <c r="S6" s="9">
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
         <v>288</v>
       </c>
-      <c r="T6" s="9">
-        <v>0</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="T6" s="7">
+        <v>0</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>904845020</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>20171023</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>3013991893</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>14436525</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="20">
+      <c r="K7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="18">
         <v>36</v>
       </c>
-      <c r="M7" s="20">
-        <v>0</v>
-      </c>
-      <c r="N7" s="20">
-        <v>0</v>
-      </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="20">
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
         <v>36</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="19">
         <v>72</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="13">
         <v>2</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="13">
         <v>72</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="13">
         <v>10</v>
       </c>
-      <c r="V7" s="20">
+      <c r="V7" s="18">
         <v>82.02</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>904845021</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>20171023</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>3013991943</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>14436589</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>1</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L8" s="8">
+      <c r="K8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="6">
         <v>36</v>
       </c>
-      <c r="M8" s="8">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="8">
-        <v>0</v>
-      </c>
-      <c r="P8" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="8">
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>36</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>36</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="7">
         <v>1</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="7">
         <v>36</v>
       </c>
-      <c r="U8" s="9">
+      <c r="U8" s="7">
         <v>21.09</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>57.09</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="6">
         <v>904845022</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>20171023</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>3013991944</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>14436590</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="K9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L9" s="8">
+      <c r="K9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="6">
         <v>36</v>
       </c>
-      <c r="M9" s="8">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="8">
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>36</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>72</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="7">
         <v>2</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="7">
         <v>72</v>
       </c>
-      <c r="U9" s="9">
+      <c r="U9" s="7">
         <v>10.02</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="6">
         <v>82.02</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>904845023</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>20171023</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>3013991946</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>14436598</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="8">
+      <c r="K10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="6">
         <v>15</v>
       </c>
-      <c r="M10" s="8">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="8">
-        <v>0</v>
-      </c>
-      <c r="P10" s="8">
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
         <v>-5</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="6">
         <v>20</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="6">
         <v>40</v>
       </c>
-      <c r="S10" s="10">
+      <c r="S10" s="8">
         <v>3</v>
       </c>
-      <c r="T10" s="9">
+      <c r="T10" s="7">
         <v>110</v>
       </c>
-      <c r="U10" s="9">
+      <c r="U10" s="7">
         <v>13.5</v>
       </c>
-      <c r="V10" s="8">
+      <c r="V10" s="6">
         <v>123.5</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>904845023</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>20171023</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>3013991946</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>14436598</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="8">
+      <c r="K11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="6">
         <v>60</v>
       </c>
-      <c r="M11" s="8">
-        <v>0</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="8">
-        <v>0</v>
-      </c>
-      <c r="P11" s="8">
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
         <v>-10</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>70</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>70</v>
       </c>
-      <c r="S11" s="10">
+      <c r="S11" s="8">
         <v>3</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="7">
         <v>110</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="7">
         <v>13.5</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="6">
         <v>123.5</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>904845108</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>20171023</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>3013992523</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>14439384</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>1</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="K12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="6">
         <v>115</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>10</v>
       </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>103.5</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>103.5</v>
       </c>
-      <c r="S12" s="9">
+      <c r="S12" s="7">
         <v>1</v>
       </c>
-      <c r="T12" s="9">
+      <c r="T12" s="7">
         <v>103.5</v>
       </c>
-      <c r="U12" s="9">
+      <c r="U12" s="7">
         <v>5</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="6">
         <v>114.97</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>904845029</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>20171023</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>3013992639</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="6">
         <v>14439590</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>5</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="K13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="6">
         <v>15</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <v>25</v>
       </c>
-      <c r="N13" s="8">
-        <v>0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="8">
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>11.25</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="6">
         <v>56.25</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="7">
         <v>5</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="7">
         <v>56.25</v>
       </c>
-      <c r="U13" s="9">
+      <c r="U13" s="7">
         <v>5</v>
       </c>
-      <c r="V13" s="8">
+      <c r="V13" s="6">
         <v>65.61</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>904845112</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>20171023</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>3013992785</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="6">
         <v>14439831</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>1</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="6">
         <v>128</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="6">
         <v>10</v>
       </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="8">
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>115.2</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="6">
         <v>115.2</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="7">
         <v>1</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="7">
         <v>115.2</v>
       </c>
-      <c r="U14" s="9">
+      <c r="U14" s="7">
         <v>5</v>
       </c>
-      <c r="V14" s="8">
+      <c r="V14" s="6">
         <v>120.2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>904845031</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>20171023</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>3013992896</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="6">
         <v>14440336</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>1</v>
       </c>
-      <c r="K15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="8">
+      <c r="K15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="6">
         <v>128</v>
       </c>
-      <c r="M15" s="8">
-        <v>0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="8">
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
         <v>128</v>
       </c>
-      <c r="R15" s="8">
+      <c r="R15" s="6">
         <v>128</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="7">
         <v>1</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="7">
         <v>128</v>
       </c>
-      <c r="U15" s="9">
+      <c r="U15" s="7">
         <v>15</v>
       </c>
-      <c r="V15" s="8">
+      <c r="V15" s="6">
         <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>904845032</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>20171023</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>3013992902</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="6">
         <v>14440342</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>12</v>
       </c>
-      <c r="K16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="8">
+      <c r="K16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="6">
         <v>13.5</v>
       </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="6">
         <v>13.5</v>
       </c>
-      <c r="R16" s="8">
+      <c r="R16" s="6">
         <v>162</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="7">
         <v>12</v>
       </c>
-      <c r="T16" s="9">
+      <c r="T16" s="7">
         <v>162</v>
       </c>
-      <c r="U16" s="9">
+      <c r="U16" s="7">
         <v>8.7799999999999994</v>
       </c>
-      <c r="V16" s="8">
+      <c r="V16" s="6">
         <v>170.78</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>904845033</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>20171023</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>3013992910</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="6">
         <v>14440351</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>1</v>
       </c>
-      <c r="K17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="8">
+      <c r="K17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="6">
         <v>45</v>
       </c>
-      <c r="M17" s="8">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="8">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="8">
+      <c r="M17" s="6">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="6">
         <v>45</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="6">
         <v>45</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="7">
         <v>1</v>
       </c>
-      <c r="T17" s="9">
+      <c r="T17" s="7">
         <v>45</v>
       </c>
-      <c r="U17" s="9">
+      <c r="U17" s="7">
         <v>6.72</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="6">
         <v>51.72</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>904845034</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>20171023</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>3013992912</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="6">
         <v>14440354</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G18" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>1</v>
       </c>
-      <c r="K18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="8">
+      <c r="K18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="6">
         <v>145</v>
       </c>
-      <c r="M18" s="8">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="8">
-        <v>0</v>
-      </c>
-      <c r="P18" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="8">
+      <c r="M18" s="6">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="6">
         <v>145</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R18" s="6">
         <v>145</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="7">
         <v>1</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="7">
         <v>145</v>
       </c>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8">
+      <c r="U18" s="6"/>
+      <c r="V18" s="6">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
+      <c r="A19" s="10">
         <v>904845035</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>20171023</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>3013992930</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="11">
         <v>14440375</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="12">
         <v>2</v>
       </c>
-      <c r="K19" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="K19" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="11">
         <v>64</v>
       </c>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="13">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0</v>
+      </c>
+      <c r="P19" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="11">
         <v>64</v>
       </c>
-      <c r="R19" s="13">
+      <c r="R19" s="11">
         <v>128</v>
       </c>
-      <c r="S19" s="14">
+      <c r="S19" s="12">
         <v>2</v>
       </c>
-      <c r="T19" s="14">
+      <c r="T19" s="12">
         <v>128</v>
       </c>
-      <c r="U19" s="14">
-        <v>30</v>
-      </c>
-      <c r="V19" s="13">
+      <c r="U19" s="12">
+        <v>30</v>
+      </c>
+      <c r="V19" s="11">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>904845040</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>20171023</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>3013992955</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="6">
         <v>14440408</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>1</v>
       </c>
-      <c r="K20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="8">
+      <c r="K20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="6">
         <v>150</v>
       </c>
-      <c r="M20" s="8">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
-      </c>
-      <c r="O20" s="8">
-        <v>0</v>
-      </c>
-      <c r="P20" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="8">
+      <c r="M20" s="6">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="6">
         <v>130</v>
       </c>
-      <c r="R20" s="8">
+      <c r="R20" s="6">
         <v>130</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="7">
         <v>1</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="7">
         <v>130</v>
       </c>
-      <c r="U20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V20" s="8">
+      <c r="U20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V20" s="6">
         <v>130</v>
       </c>
-      <c r="W20" s="8"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>904845092</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>20171023</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>3013992990</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="6">
         <v>14440453</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="6">
         <v>4058</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>6</v>
       </c>
-      <c r="K21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="6">
         <v>25</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <v>2</v>
       </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="8">
-        <v>0</v>
-      </c>
-      <c r="P21" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="8">
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
         <v>24.5</v>
       </c>
-      <c r="R21" s="8">
+      <c r="R21" s="6">
         <v>147</v>
       </c>
-      <c r="S21" s="15">
+      <c r="S21" s="13">
         <v>6</v>
       </c>
-      <c r="T21" s="9">
+      <c r="T21" s="7">
         <v>147</v>
       </c>
-      <c r="U21" s="9">
+      <c r="U21" s="7">
         <v>13.27</v>
       </c>
-      <c r="V21" s="8">
+      <c r="V21" s="6">
         <v>160.27000000000001</v>
       </c>
-      <c r="W21" s="8"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>904845047</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="6">
         <v>20171023</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="6">
         <v>3013993022</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="6">
         <v>14440494</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>1</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="6">
         <v>141</v>
       </c>
-      <c r="M22" s="8">
-        <v>0</v>
-      </c>
-      <c r="N22" s="8">
-        <v>0</v>
-      </c>
-      <c r="O22" s="8">
-        <v>0</v>
-      </c>
-      <c r="P22" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="8">
+      <c r="M22" s="6">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
         <v>141</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="6">
         <v>141</v>
       </c>
-      <c r="S22" s="9">
+      <c r="S22" s="7">
         <v>1</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="7">
         <v>141</v>
       </c>
-      <c r="U22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="8">
+      <c r="U22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="6">
         <v>141</v>
       </c>
-      <c r="W22" s="8"/>
+      <c r="W22" s="6"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>904845094</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="6">
         <v>20171023</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="6">
         <v>3013993102</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="6">
         <v>14440584</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="6">
         <v>1</v>
       </c>
-      <c r="K23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="6">
         <v>200</v>
       </c>
-      <c r="M23" s="8">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8">
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
         <v>170</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="6">
         <v>170</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="6">
         <v>1</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
         <v>170</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="6">
         <v>15</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="6">
         <v>185</v>
       </c>
-      <c r="W23" s="8"/>
+      <c r="W23" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="275">
   <si>
     <t>ORDER</t>
   </si>
@@ -2155,10 +2155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2285,8 +2285,8 @@
       <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
+      <c r="J2">
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>31</v>
@@ -2312,14 +2312,14 @@
       <c r="R2">
         <v>180</v>
       </c>
-      <c r="S2" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" t="s">
-        <v>30</v>
+      <c r="S2">
+        <v>12</v>
+      </c>
+      <c r="T2">
+        <v>180</v>
+      </c>
+      <c r="U2">
+        <v>6.44</v>
       </c>
       <c r="V2">
         <v>186.44</v>
@@ -2353,8 +2353,8 @@
       <c r="I3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
+      <c r="J3">
+        <v>43</v>
       </c>
       <c r="K3" t="s">
         <v>31</v>
@@ -2380,14 +2380,14 @@
       <c r="R3">
         <v>4300</v>
       </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" t="s">
-        <v>30</v>
+      <c r="S3">
+        <v>43</v>
+      </c>
+      <c r="T3">
+        <v>4300</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
       </c>
       <c r="V3">
         <v>4300</v>
@@ -2421,8 +2421,8 @@
       <c r="I4" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
+      <c r="J4">
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>31</v>
@@ -2448,14 +2448,14 @@
       <c r="R4">
         <v>3200</v>
       </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" t="s">
-        <v>30</v>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>3200</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
       </c>
       <c r="V4">
         <v>3200</v>
@@ -2625,8 +2625,8 @@
       <c r="I7" t="s">
         <v>47</v>
       </c>
-      <c r="J7" t="s">
-        <v>30</v>
+      <c r="J7">
+        <v>2</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
@@ -2652,14 +2652,14 @@
       <c r="R7">
         <v>72</v>
       </c>
-      <c r="S7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" t="s">
-        <v>30</v>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>72</v>
+      </c>
+      <c r="U7">
+        <v>10.02</v>
       </c>
       <c r="V7">
         <v>82.02</v>
@@ -2693,9 +2693,6 @@
       <c r="I8" t="s">
         <v>52</v>
       </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" t="s">
         <v>31</v>
       </c>
@@ -2761,8 +2758,8 @@
       <c r="I9" t="s">
         <v>47</v>
       </c>
-      <c r="J9" t="s">
-        <v>30</v>
+      <c r="J9">
+        <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>31</v>
@@ -2788,14 +2785,14 @@
       <c r="R9">
         <v>36</v>
       </c>
-      <c r="S9" t="s">
-        <v>30</v>
-      </c>
-      <c r="T9" t="s">
-        <v>30</v>
-      </c>
-      <c r="U9" t="s">
-        <v>30</v>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>36</v>
+      </c>
+      <c r="U9">
+        <v>21.09</v>
       </c>
       <c r="V9">
         <v>57.09</v>
@@ -2829,8 +2826,8 @@
       <c r="I10" t="s">
         <v>47</v>
       </c>
-      <c r="J10" t="s">
-        <v>30</v>
+      <c r="J10">
+        <v>2</v>
       </c>
       <c r="K10" t="s">
         <v>31</v>
@@ -2856,14 +2853,14 @@
       <c r="R10">
         <v>72</v>
       </c>
-      <c r="S10" t="s">
-        <v>30</v>
-      </c>
-      <c r="T10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U10" t="s">
-        <v>30</v>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>72</v>
+      </c>
+      <c r="U10">
+        <v>10.02</v>
       </c>
       <c r="V10">
         <v>82.02</v>
@@ -3033,8 +3030,8 @@
       <c r="I13" t="s">
         <v>61</v>
       </c>
-      <c r="J13" t="s">
-        <v>30</v>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>31</v>
@@ -3060,14 +3057,14 @@
       <c r="R13">
         <v>103.5</v>
       </c>
-      <c r="S13" t="s">
-        <v>30</v>
-      </c>
-      <c r="T13" t="s">
-        <v>30</v>
-      </c>
-      <c r="U13" t="s">
-        <v>30</v>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>103.5</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
       </c>
       <c r="V13">
         <v>114.97</v>
@@ -3101,8 +3098,8 @@
       <c r="I14" t="s">
         <v>65</v>
       </c>
-      <c r="J14" t="s">
-        <v>30</v>
+      <c r="J14">
+        <v>5</v>
       </c>
       <c r="K14" t="s">
         <v>31</v>
@@ -3128,14 +3125,14 @@
       <c r="R14">
         <v>56.25</v>
       </c>
-      <c r="S14" t="s">
-        <v>30</v>
-      </c>
-      <c r="T14" t="s">
-        <v>30</v>
-      </c>
-      <c r="U14" t="s">
-        <v>30</v>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>56.25</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
       </c>
       <c r="V14">
         <v>65.61</v>
@@ -3169,8 +3166,8 @@
       <c r="I15" t="s">
         <v>67</v>
       </c>
-      <c r="J15" t="s">
-        <v>30</v>
+      <c r="J15">
+        <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>31</v>
@@ -3196,14 +3193,14 @@
       <c r="R15">
         <v>115.2</v>
       </c>
-      <c r="S15" t="s">
-        <v>30</v>
-      </c>
-      <c r="T15" t="s">
-        <v>30</v>
-      </c>
-      <c r="U15" t="s">
-        <v>30</v>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>115.2</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
       </c>
       <c r="V15">
         <v>120.2</v>
@@ -3237,8 +3234,8 @@
       <c r="I16" t="s">
         <v>70</v>
       </c>
-      <c r="J16" t="s">
-        <v>30</v>
+      <c r="J16">
+        <v>1</v>
       </c>
       <c r="K16" t="s">
         <v>31</v>
@@ -3264,14 +3261,14 @@
       <c r="R16">
         <v>128</v>
       </c>
-      <c r="S16" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" t="s">
-        <v>30</v>
-      </c>
-      <c r="U16" t="s">
-        <v>30</v>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>128</v>
+      </c>
+      <c r="U16">
+        <v>15</v>
       </c>
       <c r="V16">
         <v>143</v>
@@ -3305,8 +3302,8 @@
       <c r="I17" t="s">
         <v>73</v>
       </c>
-      <c r="J17" t="s">
-        <v>30</v>
+      <c r="J17">
+        <v>12</v>
       </c>
       <c r="K17" t="s">
         <v>31</v>
@@ -3332,14 +3329,14 @@
       <c r="R17">
         <v>162</v>
       </c>
-      <c r="S17" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U17" t="s">
-        <v>30</v>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>162</v>
+      </c>
+      <c r="U17">
+        <v>8.7799999999999994</v>
       </c>
       <c r="V17">
         <v>170.78</v>
@@ -3373,8 +3370,8 @@
       <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" t="s">
-        <v>30</v>
+      <c r="J18">
+        <v>1</v>
       </c>
       <c r="K18" t="s">
         <v>31</v>
@@ -3400,14 +3397,14 @@
       <c r="R18">
         <v>45</v>
       </c>
-      <c r="S18" t="s">
-        <v>30</v>
-      </c>
-      <c r="T18" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" t="s">
-        <v>30</v>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>45</v>
+      </c>
+      <c r="U18">
+        <v>6.72</v>
       </c>
       <c r="V18">
         <v>51.72</v>
@@ -3509,8 +3506,8 @@
       <c r="I20" t="s">
         <v>84</v>
       </c>
-      <c r="J20" t="s">
-        <v>30</v>
+      <c r="J20">
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>31</v>
@@ -3536,13 +3533,13 @@
       <c r="R20">
         <v>128</v>
       </c>
-      <c r="S20" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" t="s">
-        <v>30</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>128</v>
+      </c>
+      <c r="U20">
         <v>30</v>
       </c>
       <c r="V20">
@@ -3577,8 +3574,8 @@
       <c r="I21" t="s">
         <v>88</v>
       </c>
-      <c r="J21" t="s">
-        <v>30</v>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
         <v>31</v>
@@ -3604,14 +3601,14 @@
       <c r="R21">
         <v>130</v>
       </c>
-      <c r="S21" t="s">
-        <v>30</v>
-      </c>
-      <c r="T21" t="s">
-        <v>30</v>
-      </c>
-      <c r="U21" t="s">
-        <v>30</v>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>130</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
       </c>
       <c r="V21">
         <v>130</v>
@@ -3713,8 +3710,8 @@
       <c r="I23" t="s">
         <v>94</v>
       </c>
-      <c r="J23" t="s">
-        <v>30</v>
+      <c r="J23">
+        <v>6</v>
       </c>
       <c r="K23" t="s">
         <v>31</v>
@@ -3740,14 +3737,14 @@
       <c r="R23">
         <v>147</v>
       </c>
-      <c r="S23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U23" t="s">
-        <v>30</v>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>147</v>
+      </c>
+      <c r="U23">
+        <v>13.27</v>
       </c>
       <c r="V23">
         <v>160.27000000000001</v>
@@ -3849,8 +3846,8 @@
       <c r="I25" t="s">
         <v>102</v>
       </c>
-      <c r="J25" t="s">
-        <v>30</v>
+      <c r="J25">
+        <v>1</v>
       </c>
       <c r="K25" t="s">
         <v>31</v>
@@ -3876,14 +3873,14 @@
       <c r="R25">
         <v>170</v>
       </c>
-      <c r="S25" t="s">
-        <v>30</v>
-      </c>
-      <c r="T25" t="s">
-        <v>30</v>
-      </c>
-      <c r="U25" t="s">
-        <v>30</v>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>170</v>
+      </c>
+      <c r="U25">
+        <v>15</v>
       </c>
       <c r="V25">
         <v>185</v>
@@ -3917,8 +3914,8 @@
       <c r="I26" t="s">
         <v>106</v>
       </c>
-      <c r="J26" t="s">
-        <v>30</v>
+      <c r="J26">
+        <v>1</v>
       </c>
       <c r="K26" t="s">
         <v>31</v>
@@ -3944,14 +3941,14 @@
       <c r="R26">
         <v>0</v>
       </c>
-      <c r="S26" t="s">
-        <v>30</v>
-      </c>
-      <c r="T26" t="s">
-        <v>30</v>
-      </c>
-      <c r="U26" t="s">
-        <v>30</v>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3985,8 +3982,8 @@
       <c r="I27" t="s">
         <v>109</v>
       </c>
-      <c r="J27" t="s">
-        <v>30</v>
+      <c r="J27">
+        <v>12</v>
       </c>
       <c r="K27" t="s">
         <v>31</v>
@@ -4012,14 +4009,14 @@
       <c r="R27">
         <v>150</v>
       </c>
-      <c r="S27" t="s">
-        <v>30</v>
-      </c>
-      <c r="T27" t="s">
-        <v>30</v>
-      </c>
-      <c r="U27" t="s">
-        <v>30</v>
+      <c r="S27">
+        <v>12</v>
+      </c>
+      <c r="T27">
+        <v>150</v>
+      </c>
+      <c r="U27">
+        <v>7.79</v>
       </c>
       <c r="V27">
         <v>157.79</v>
@@ -4053,8 +4050,8 @@
       <c r="I28" t="s">
         <v>113</v>
       </c>
-      <c r="J28" t="s">
-        <v>30</v>
+      <c r="J28">
+        <v>1</v>
       </c>
       <c r="K28" t="s">
         <v>31</v>
@@ -4080,14 +4077,14 @@
       <c r="R28">
         <v>0</v>
       </c>
-      <c r="S28" t="s">
-        <v>30</v>
-      </c>
-      <c r="T28" t="s">
-        <v>30</v>
-      </c>
-      <c r="U28" t="s">
-        <v>30</v>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -4121,8 +4118,8 @@
       <c r="I29" t="s">
         <v>117</v>
       </c>
-      <c r="J29" t="s">
-        <v>30</v>
+      <c r="J29">
+        <v>1</v>
       </c>
       <c r="K29" t="s">
         <v>31</v>
@@ -4148,14 +4145,14 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="S29" t="s">
-        <v>30</v>
-      </c>
-      <c r="T29" t="s">
-        <v>30</v>
-      </c>
-      <c r="U29" t="s">
-        <v>30</v>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -4189,8 +4186,8 @@
       <c r="I30" t="s">
         <v>67</v>
       </c>
-      <c r="J30" t="s">
-        <v>30</v>
+      <c r="J30">
+        <v>1</v>
       </c>
       <c r="K30" t="s">
         <v>31</v>
@@ -4216,14 +4213,14 @@
       <c r="R30">
         <v>128</v>
       </c>
-      <c r="S30" t="s">
-        <v>30</v>
-      </c>
-      <c r="T30" t="s">
-        <v>30</v>
-      </c>
-      <c r="U30" t="s">
-        <v>30</v>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>128</v>
+      </c>
+      <c r="U30">
+        <v>15</v>
       </c>
       <c r="V30">
         <v>143</v>
@@ -4257,8 +4254,8 @@
       <c r="I31" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>30</v>
+      <c r="J31" s="23">
+        <v>1</v>
       </c>
       <c r="K31" s="23" t="s">
         <v>31</v>
@@ -4284,14 +4281,14 @@
       <c r="R31" s="23">
         <v>30</v>
       </c>
-      <c r="S31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T31" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U31" s="23" t="s">
-        <v>30</v>
+      <c r="S31" s="23">
+        <v>1</v>
+      </c>
+      <c r="T31" s="23">
+        <v>30</v>
+      </c>
+      <c r="U31" s="23">
+        <v>2</v>
       </c>
       <c r="V31" s="23">
         <v>32</v>
@@ -4328,8 +4325,8 @@
       <c r="I32" t="s">
         <v>125</v>
       </c>
-      <c r="J32" t="s">
-        <v>30</v>
+      <c r="J32">
+        <v>1</v>
       </c>
       <c r="K32" t="s">
         <v>31</v>
@@ -4355,14 +4352,14 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="S32" t="s">
-        <v>30</v>
-      </c>
-      <c r="T32" t="s">
-        <v>30</v>
-      </c>
-      <c r="U32" t="s">
-        <v>30</v>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -4871,9 +4868,6 @@
       </c>
       <c r="I40" t="s">
         <v>149</v>
-      </c>
-      <c r="J40" t="s">
-        <v>30</v>
       </c>
       <c r="K40" t="s">
         <v>31</v>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="960" yWindow="660" windowWidth="20580" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="275">
   <si>
     <t>ORDER</t>
   </si>
@@ -2155,10 +2155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5472,8 +5472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5690,9 +5690,7 @@
       <c r="T3" s="9">
         <v>4300</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="U3" s="8"/>
       <c r="V3" s="8">
         <v>4300</v>
       </c>
@@ -5826,9 +5824,7 @@
       <c r="T5" s="9">
         <v>0</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="U5" s="8"/>
       <c r="V5" s="8">
         <v>0</v>
       </c>
@@ -5894,9 +5890,7 @@
       <c r="T6" s="9">
         <v>0</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="U6" s="8"/>
       <c r="V6" s="8">
         <v>0</v>
       </c>
@@ -5963,7 +5957,7 @@
         <v>72</v>
       </c>
       <c r="U7" s="15">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="V7" s="20">
         <v>82.02</v>
@@ -6370,9 +6364,7 @@
       <c r="T13" s="9">
         <v>56.25</v>
       </c>
-      <c r="U13" s="9">
-        <v>5</v>
-      </c>
+      <c r="U13" s="9"/>
       <c r="V13" s="8">
         <v>65.61</v>
       </c>

--- a/Resources/8-data.xlsx
+++ b/Resources/8-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="275">
   <si>
     <t>ORDER</t>
   </si>
@@ -2155,10 +2155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="J33" sqref="J33"/>
+      <selection pane="bottomLeft" activeCell="S47" sqref="S47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,8 +3438,8 @@
       <c r="I19" t="s">
         <v>80</v>
       </c>
-      <c r="J19" t="s">
-        <v>30</v>
+      <c r="J19">
+        <v>1</v>
       </c>
       <c r="K19" t="s">
         <v>31</v>
@@ -3465,14 +3465,14 @@
       <c r="R19">
         <v>145</v>
       </c>
-      <c r="S19" t="s">
-        <v>30</v>
-      </c>
-      <c r="T19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" t="s">
-        <v>30</v>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>145</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
       </c>
       <c r="V19">
         <v>145</v>
@@ -3778,8 +3778,8 @@
       <c r="I24" t="s">
         <v>98</v>
       </c>
-      <c r="J24" t="s">
-        <v>30</v>
+      <c r="J24">
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>31</v>
@@ -3805,14 +3805,14 @@
       <c r="R24">
         <v>141</v>
       </c>
-      <c r="S24" t="s">
-        <v>30</v>
-      </c>
-      <c r="T24" t="s">
-        <v>30</v>
-      </c>
-      <c r="U24" t="s">
-        <v>30</v>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>141</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
       </c>
       <c r="V24">
         <v>141</v>
@@ -4597,8 +4597,8 @@
       <c r="I36" t="s">
         <v>137</v>
       </c>
-      <c r="J36" t="s">
-        <v>30</v>
+      <c r="J36">
+        <v>6</v>
       </c>
       <c r="K36" t="s">
         <v>31</v>
@@ -4624,14 +4624,14 @@
       <c r="R36">
         <v>82.32</v>
       </c>
-      <c r="S36" t="s">
-        <v>30</v>
-      </c>
-      <c r="T36" t="s">
-        <v>30</v>
-      </c>
-      <c r="U36" t="s">
-        <v>30</v>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>82.32</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
       </c>
       <c r="V36">
         <v>82.32</v>
@@ -5372,14 +5372,14 @@
       <c r="R47" s="23">
         <v>0</v>
       </c>
-      <c r="S47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="T47" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="U47" s="23" t="s">
-        <v>30</v>
+      <c r="S47" s="23">
+        <v>1</v>
+      </c>
+      <c r="T47" s="23">
+        <v>0</v>
+      </c>
+      <c r="U47" s="23">
+        <v>0</v>
       </c>
       <c r="V47" s="23">
         <v>0</v>
